--- a/xlsx/蛋糕_intext.xlsx
+++ b/xlsx/蛋糕_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E7%B3%95</t>
   </si>
   <si>
-    <t>馬拉糕</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_蛋糕</t>
+    <t>马拉糕</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%95%E7%82%B9</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9C%E9%BB%9E</t>
   </si>
   <si>
-    <t>甜點</t>
+    <t>甜点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A8%98</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E5%A9%9A%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>結婚蛋糕</t>
+    <t>结婚蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%97%A5%E8%9B%8B%E7%B3%95</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E7%AD%8B_(%E9%A3%9F%E5%93%81)</t>
   </si>
   <si>
-    <t>麵筋 (食品)</t>
+    <t>面筋 (食品)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%80%E7%B2%89</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%85%B5%E7%B2%89</t>
   </si>
   <si>
-    <t>發酵粉</t>
+    <t>发酵粉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B</t>
   </si>
   <si>
-    <t>阿聯酋</t>
+    <t>阿联酋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
+    <t>英镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%AF%B6%E7%9F%B3</t>
   </si>
   <si>
-    <t>綠寶石</t>
+    <t>绿宝石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%B3%95%E5%88%97%E8%A1%A8</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E6%97%A5%E5%A0%B1_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>蘋果日報 (香港)</t>
+    <t>苹果日报 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%9B%8B%E7%B3%95</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF%E7%89%9B%E6%B2%B9%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>聖路易斯牛油蛋糕</t>
+    <t>圣路易斯牛油蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A7%E5%85%8B%E5%8A%9B%E8%9B%8B%E7%B3%95</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B1%A4%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>千層蛋糕</t>
+    <t>千层蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E8%BC%AA%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>年輪蛋糕</t>
+    <t>年轮蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E5%A3%AB%E8%9B%8B%E7%B3%95</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BC%8F%E5%8D%83%E5%B1%A4%E9%85%A5</t>
   </si>
   <si>
-    <t>法式千層酥</t>
+    <t>法式千层酥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E5%A4%A9%E9%B9%85%E7%BB%92%E8%9B%8B%E7%B3%95</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%B6%BF%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>海綿蛋糕</t>
+    <t>海绵蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B7%E8%9B%8B%E7%B3%95</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%99%E5%8C%85%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>紙包蛋糕</t>
+    <t>纸包蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%8A%B3%E8%9B%8B%E7%B3%95</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E7%92%B0%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>圓環蛋糕</t>
+    <t>圆环蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%90%86%E7%9F%B3%E8%9B%8B%E7%B3%95</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%A7%86%E9%85%92%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>蘭姆酒蛋糕</t>
+    <t>兰姆酒蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%BB%95%E4%BC%AF%E6%A0%BC%E8%9B%8B%E7%B3%95</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E5%B3%B6%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>馬德拉島蛋糕</t>
+    <t>马德拉岛蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E8%AB%BE%E7%93%A6%E5%A3%AB%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>傑諾瓦士蛋糕</t>
+    <t>杰诺瓦士蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A1%E6%B2%AB%E8%9B%8B%E7%B3%95</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%85%8B%E7%93%A6%E8%8C%B2%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>達克瓦茲蛋糕</t>
+    <t>达克瓦兹蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%94%AB%E6%B4%9B%E5%A8%83%E8%9B%8B%E7%B3%95</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E6%A8%B9%E5%B9%B9%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>聖誕樹幹蛋糕</t>
+    <t>圣诞树干蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%9B%8B%E7%B3%95</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%A9%86%E9%A4%85</t>
   </si>
   <si>
-    <t>老婆餅</t>
+    <t>老婆饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E6%A2%A8%E9%85%A5</t>
   </si>
   <si>
-    <t>鳳梨酥</t>
+    <t>凤梨酥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A7%BD%E5%AD%90%E7%B3%95</t>
@@ -527,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E6%B4%BE</t>
   </si>
   <si>
-    <t>蘋果派</t>
+    <t>苹果派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%8C%B2%E8%9B%8B%E7%B3%95</t>
   </si>
   <si>
-    <t>林茲蛋糕</t>
+    <t>林兹蛋糕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B8%E6%9D%AF%E8%9B%8B%E7%B3%95</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%8B%89%E7%B1%B3%E8%98%87</t>
   </si>
   <si>
-    <t>提拉米蘇</t>
+    <t>提拉米苏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A4%AB%E8%9B%8B%E7%B3%95</t>
@@ -575,19 +575,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E7%B3%96%E5%A5%B6%E6%B2%B9%E9%AC%86%E9%A4%85</t>
   </si>
   <si>
-    <t>焦糖奶油鬆餅</t>
+    <t>焦糖奶油松饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BB%83%E9%87%91%E9%BA%B5%E5%8C%85</t>
   </si>
   <si>
-    <t>義大利黃金麵包</t>
+    <t>义大利黄金面包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
